--- a/docs/ims/ims-metadata.xlsx
+++ b/docs/ims/ims-metadata.xlsx
@@ -14,8 +14,11 @@
     <sheet name="analyte_class list" sheetId="5" r:id="rId5"/>
     <sheet name="ms_source list" sheetId="6" r:id="rId6"/>
     <sheet name="polarity list" sheetId="7" r:id="rId7"/>
-    <sheet name="resolution_x_unit list" sheetId="8" r:id="rId8"/>
-    <sheet name="resolution_y_unit list" sheetId="9" r:id="rId9"/>
+    <sheet name="ion_mobility list" sheetId="8" r:id="rId8"/>
+    <sheet name="ms_scan_mode list" sheetId="9" r:id="rId9"/>
+    <sheet name="resolution_x_unit list" sheetId="10" r:id="rId10"/>
+    <sheet name="resolution_y_unit list" sheetId="11" r:id="rId11"/>
+    <sheet name="desi_solvent_f...rate_unit list" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -296,11 +299,63 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
+          <t>This is the MS1 resolving power. This is a unitless value often calculated as m/∆m where ∆m is the FWHM for a given peak with a certain m/z (m).</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="V1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This is the m/z used to calculate the resolving power.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="W1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Methodologies for measuring ion mobility: Traveling Wave Ion Mobility Spectrometry (TWIMS), Trapped Ion Mobility Spectrometry (TIMS), High Field Asymmetric waveform ion Mobility Spectrometry (FAIMS), Drift Tube Ion Mobility Spectrometry (DTIMS), Structures for Lossless Ion Manipulations Spectrometry (SLIMS).</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="X1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>TODO</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Y1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
           <t>The width of a pixel.</t>
         </r>
       </text>
     </comment>
-    <comment ref="V1" authorId="0">
+    <comment ref="Z1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -313,7 +368,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W1" authorId="0">
+    <comment ref="AA1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -326,7 +381,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X1" authorId="0">
+    <comment ref="AB1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -339,7 +394,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y1" authorId="0">
+    <comment ref="AC1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -352,7 +407,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z1" authorId="0">
+    <comment ref="AD1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -365,7 +420,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA1" authorId="0">
+    <comment ref="AE1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -378,7 +433,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB1" authorId="0">
+    <comment ref="AF1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -391,7 +446,46 @@
         </r>
       </text>
     </comment>
-    <comment ref="AC1" authorId="0">
+    <comment ref="AG1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>TODO</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AH1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>TODO</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AI1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>TODO</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AJ1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -404,7 +498,20 @@
         </r>
       </text>
     </comment>
-    <comment ref="AD1" authorId="0">
+    <comment ref="AK1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>DOI for analysis protocols.io for this assay.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AL1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -417,7 +524,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AE1" authorId="0">
+    <comment ref="AM1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -430,7 +537,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AF1" authorId="0">
+    <comment ref="AN1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -448,7 +555,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="71">
   <si>
     <t>version</t>
   </si>
@@ -495,6 +602,12 @@
     <t>MALDI-IMS</t>
   </si>
   <si>
+    <t>SIMS-IMS</t>
+  </si>
+  <si>
+    <t>DESI</t>
+  </si>
+  <si>
     <t>analyte_class</t>
   </si>
   <si>
@@ -507,6 +620,15 @@
     <t>lipids</t>
   </si>
   <si>
+    <t>peptides</t>
+  </si>
+  <si>
+    <t>phosphopeptides</t>
+  </si>
+  <si>
+    <t>glycans</t>
+  </si>
+  <si>
     <t>is_targeted</t>
   </si>
   <si>
@@ -525,13 +647,19 @@
     <t>MALDI-2</t>
   </si>
   <si>
-    <t>DESI</t>
-  </si>
-  <si>
-    <t>SIMS</t>
-  </si>
-  <si>
-    <t>nESI</t>
+    <t>LDI</t>
+  </si>
+  <si>
+    <t>LA</t>
+  </si>
+  <si>
+    <t>SIMS-C60</t>
+  </si>
+  <si>
+    <t>SIMS-H2O</t>
+  </si>
+  <si>
+    <t>ESI</t>
   </si>
   <si>
     <t>polarity</t>
@@ -549,6 +677,42 @@
     <t>mz_range_high_value</t>
   </si>
   <si>
+    <t>mass_resolving_power</t>
+  </si>
+  <si>
+    <t>mz_resolving_power</t>
+  </si>
+  <si>
+    <t>ion_mobility</t>
+  </si>
+  <si>
+    <t>TIMS</t>
+  </si>
+  <si>
+    <t>TWIMS</t>
+  </si>
+  <si>
+    <t>FAIMS</t>
+  </si>
+  <si>
+    <t>DTIMS</t>
+  </si>
+  <si>
+    <t>SLIMS</t>
+  </si>
+  <si>
+    <t>ms_scan_mode</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>MS/MS</t>
+  </si>
+  <si>
+    <t>MS3</t>
+  </si>
+  <si>
     <t>resolution_x_value</t>
   </si>
   <si>
@@ -579,7 +743,22 @@
     <t>preparation_maldi_matrix</t>
   </si>
   <si>
+    <t>desi_solvent</t>
+  </si>
+  <si>
+    <t>desi_solvent_flow_rate</t>
+  </si>
+  <si>
+    <t>desi_solvent_flow_rate_unit</t>
+  </si>
+  <si>
+    <t>TODO</t>
+  </si>
+  <si>
     <t>section_prep_protocols_io_doi</t>
+  </si>
+  <si>
+    <t>processing_protocols_io_doi</t>
   </si>
   <si>
     <t>overall_protocols_io_doi</t>
@@ -937,7 +1116,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AF1"/>
+  <dimension ref="A1:AN1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -946,7 +1125,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:32">
+    <row r="1" spans="1:40">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -984,85 +1163,109 @@
         <v>13</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>46</v>
+        <v>61</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="13">
+  <dataValidations count="18">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: 1." sqref="A2:A1048576">
       <formula1>'version list'!$A$1:$A$1</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: mass_spectrometry_imaging." sqref="K2:K1048576">
       <formula1>'assay_category list'!$A$1:$A$1</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: MALDI-IMS." sqref="L2:L1048576">
-      <formula1>'assay_type list'!$A$1:$A$1</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: protein / metabolites / lipids." sqref="M2:M1048576">
-      <formula1>'analyte_class list'!$A$1:$A$3</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: MALDI-IMS / SIMS-IMS / DESI." sqref="L2:L1048576">
+      <formula1>'assay_type list'!$A$1:$A$3</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must come from analyte_class list." sqref="M2:M1048576">
+      <formula1>'analyte_class list'!$A$1:$A$6</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a boolean" error="The values in this column must be &quot;TRUE&quot; or &quot;FALSE&quot;." sqref="N2:N1048576">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: MALDI / MALDI-2 / DESI / SIMS / nESI." sqref="Q2:Q1048576">
-      <formula1>'ms_source list'!$A$1:$A$5</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must come from ms_source list." sqref="Q2:Q1048576">
+      <formula1>'ms_source list'!$A$1:$A$7</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: negative ion mode / positive ion mode." sqref="R2:R1048576">
       <formula1>'polarity list'!$A$1:$A$2</formula1>
@@ -1079,19 +1282,100 @@
       <formula1>-1e+307</formula1>
       <formula2>1e+307</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: nm / um." sqref="V2:V1048576">
-      <formula1>'resolution_x_unit list'!$A$1:$A$2</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="W2:W1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: TIMS / TWIMS / FAIMS / DTIMS / SLIMS." sqref="W2:W1048576">
+      <formula1>'ion_mobility list'!$A$1:$A$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: MS / MS/MS / MS3." sqref="X2:X1048576">
+      <formula1>'ms_scan_mode list'!$A$1:$A$3</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="Y2:Y1048576">
       <formula1>-1e+307</formula1>
       <formula2>1e+307</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: nm / um." sqref="X2:X1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: nm / um." sqref="Z2:Z1048576">
+      <formula1>'resolution_x_unit list'!$A$1:$A$2</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="AA2:AA1048576">
+      <formula1>-1e+307</formula1>
+      <formula2>1e+307</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: nm / um." sqref="AB2:AB1048576">
       <formula1>'resolution_y_unit list'!$A$1:$A$2</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="AH2:AH1048576">
+      <formula1>-1e+307</formula1>
+      <formula2>1e+307</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: TODO." sqref="AI2:AI1048576">
+      <formula1>'desi_solvent_f...rate_unit list'!$A$1:$A$1</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -1133,7 +1417,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1144,6 +1428,16 @@
         <v>14</v>
       </c>
     </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1151,7 +1445,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1159,17 +1453,32 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1179,7 +1488,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1187,27 +1496,37 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1225,12 +1544,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1240,7 +1559,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1248,12 +1567,27 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1263,7 +1597,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1271,12 +1605,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/docs/ims/ims-metadata.xlsx
+++ b/docs/ims/ims-metadata.xlsx
@@ -18,7 +18,8 @@
     <sheet name="ms_scan_mode list" sheetId="9" r:id="rId9"/>
     <sheet name="resolution_x_unit list" sheetId="10" r:id="rId10"/>
     <sheet name="resolution_y_unit list" sheetId="11" r:id="rId11"/>
-    <sheet name="desi_solvent_f...rate_unit list" sheetId="12" r:id="rId12"/>
+    <sheet name="preparation_maldi_matrix list" sheetId="12" r:id="rId12"/>
+    <sheet name="desi_solvent_f...rate_unit list" sheetId="13" r:id="rId13"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -338,7 +339,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>TODO</t>
+          <t>Scan mode refers to the number of steps in the separation of fragments.</t>
         </r>
       </text>
     </comment>
@@ -455,7 +456,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>TODO</t>
+          <t>Solvent composition for conducting nanospray desorption electrospray ionization (nanoDESI) or desorption electrospray ionization (DESI).</t>
         </r>
       </text>
     </comment>
@@ -468,7 +469,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>TODO</t>
+          <t>The rate of flow of the solvent into a spray.</t>
         </r>
       </text>
     </comment>
@@ -481,7 +482,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>TODO</t>
+          <t>Units of the rate of solvent flow.</t>
         </r>
       </text>
     </comment>
@@ -555,12 +556,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="75">
   <si>
     <t>version</t>
   </si>
   <si>
-    <t>1</t>
+    <t>2</t>
   </si>
   <si>
     <t>description</t>
@@ -605,6 +606,9 @@
     <t>SIMS-IMS</t>
   </si>
   <si>
+    <t>NanoDESI</t>
+  </si>
+  <si>
     <t>DESI</t>
   </si>
   <si>
@@ -743,6 +747,15 @@
     <t>preparation_maldi_matrix</t>
   </si>
   <si>
+    <t>CHB</t>
+  </si>
+  <si>
+    <t>DHB</t>
+  </si>
+  <si>
+    <t>SA</t>
+  </si>
+  <si>
     <t>desi_solvent</t>
   </si>
   <si>
@@ -752,7 +765,7 @@
     <t>desi_solvent_flow_rate_unit</t>
   </si>
   <si>
-    <t>TODO</t>
+    <t>uL/minute</t>
   </si>
   <si>
     <t>section_prep_protocols_io_doi</t>
@@ -1163,100 +1176,100 @@
         <v>13</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="18">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: 1." sqref="A2:A1048576">
+  <dataValidations count="19">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: 2." sqref="A2:A1048576">
       <formula1>'version list'!$A$1:$A$1</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: mass_spectrometry_imaging." sqref="K2:K1048576">
       <formula1>'assay_category list'!$A$1:$A$1</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: MALDI-IMS / SIMS-IMS / DESI." sqref="L2:L1048576">
-      <formula1>'assay_type list'!$A$1:$A$3</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: MALDI-IMS / SIMS-IMS / NanoDESI / DESI." sqref="L2:L1048576">
+      <formula1>'assay_type list'!$A$1:$A$4</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must come from analyte_class list." sqref="M2:M1048576">
       <formula1>'analyte_class list'!$A$1:$A$6</formula1>
@@ -1302,11 +1315,14 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: nm / um." sqref="AB2:AB1048576">
       <formula1>'resolution_y_unit list'!$A$1:$A$2</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: CHB / DHB / SA." sqref="AF2:AF1048576">
+      <formula1>'preparation_maldi_matrix list'!$A$1:$A$3</formula1>
+    </dataValidation>
     <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="AH2:AH1048576">
       <formula1>-1e+307</formula1>
       <formula2>1e+307</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: TODO." sqref="AI2:AI1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: uL/minute." sqref="AI2:AI1048576">
       <formula1>'desi_solvent_f...rate_unit list'!$A$1:$A$1</formula1>
     </dataValidation>
   </dataValidations>
@@ -1325,12 +1341,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1348,12 +1364,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1362,6 +1378,34 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1371,7 +1415,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -1417,7 +1461,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1436,6 +1480,11 @@
     <row r="3" spans="1:1">
       <c r="A3" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1453,32 +1502,32 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1496,37 +1545,37 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1544,12 +1593,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1567,27 +1616,27 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1605,17 +1654,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/docs/ims/ims-metadata.xlsx
+++ b/docs/ims/ims-metadata.xlsx
@@ -14,8 +14,12 @@
     <sheet name="analyte_class list" sheetId="5" r:id="rId5"/>
     <sheet name="ms_source list" sheetId="6" r:id="rId6"/>
     <sheet name="polarity list" sheetId="7" r:id="rId7"/>
-    <sheet name="resolution_x_unit list" sheetId="8" r:id="rId8"/>
-    <sheet name="resolution_y_unit list" sheetId="9" r:id="rId9"/>
+    <sheet name="ion_mobility list" sheetId="8" r:id="rId8"/>
+    <sheet name="ms_scan_mode list" sheetId="9" r:id="rId9"/>
+    <sheet name="resolution_x_unit list" sheetId="10" r:id="rId10"/>
+    <sheet name="resolution_y_unit list" sheetId="11" r:id="rId11"/>
+    <sheet name="preparation_maldi_matrix list" sheetId="12" r:id="rId12"/>
+    <sheet name="desi_solvent_f...rate_unit list" sheetId="13" r:id="rId13"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -296,11 +300,63 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
+          <t>This is the MS1 resolving power. This is a unitless value often calculated as m/∆m where ∆m is the FWHM for a given peak with a certain m/z (m).</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="V1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This is the m/z used to calculate the resolving power.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="W1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Methodologies for measuring ion mobility: Traveling Wave Ion Mobility Spectrometry (TWIMS), Trapped Ion Mobility Spectrometry (TIMS), High Field Asymmetric waveform ion Mobility Spectrometry (FAIMS), Drift Tube Ion Mobility Spectrometry (DTIMS), Structures for Lossless Ion Manipulations Spectrometry (SLIMS).</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="X1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Scan mode refers to the number of steps in the separation of fragments.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Y1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
           <t>The width of a pixel.</t>
         </r>
       </text>
     </comment>
-    <comment ref="V1" authorId="0">
+    <comment ref="Z1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -313,7 +369,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W1" authorId="0">
+    <comment ref="AA1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -326,7 +382,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X1" authorId="0">
+    <comment ref="AB1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -339,7 +395,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y1" authorId="0">
+    <comment ref="AC1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -352,7 +408,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z1" authorId="0">
+    <comment ref="AD1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -365,7 +421,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA1" authorId="0">
+    <comment ref="AE1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -378,7 +434,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB1" authorId="0">
+    <comment ref="AF1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -391,7 +447,46 @@
         </r>
       </text>
     </comment>
-    <comment ref="AC1" authorId="0">
+    <comment ref="AG1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Solvent composition for conducting nanospray desorption electrospray ionization (nanoDESI) or desorption electrospray ionization (DESI).</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AH1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>The rate of flow of the solvent into a spray.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AI1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Units of the rate of solvent flow.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AJ1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -404,7 +499,20 @@
         </r>
       </text>
     </comment>
-    <comment ref="AD1" authorId="0">
+    <comment ref="AK1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>DOI for analysis protocols.io for this assay.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AL1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -417,7 +525,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AE1" authorId="0">
+    <comment ref="AM1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -430,7 +538,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AF1" authorId="0">
+    <comment ref="AN1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -448,12 +556,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="75">
   <si>
     <t>version</t>
   </si>
   <si>
-    <t>1</t>
+    <t>2</t>
   </si>
   <si>
     <t>description</t>
@@ -495,6 +603,15 @@
     <t>MALDI-IMS</t>
   </si>
   <si>
+    <t>SIMS-IMS</t>
+  </si>
+  <si>
+    <t>NanoDESI</t>
+  </si>
+  <si>
+    <t>DESI</t>
+  </si>
+  <si>
     <t>analyte_class</t>
   </si>
   <si>
@@ -507,6 +624,15 @@
     <t>lipids</t>
   </si>
   <si>
+    <t>peptides</t>
+  </si>
+  <si>
+    <t>phosphopeptides</t>
+  </si>
+  <si>
+    <t>glycans</t>
+  </si>
+  <si>
     <t>is_targeted</t>
   </si>
   <si>
@@ -525,13 +651,19 @@
     <t>MALDI-2</t>
   </si>
   <si>
-    <t>DESI</t>
-  </si>
-  <si>
-    <t>SIMS</t>
-  </si>
-  <si>
-    <t>nESI</t>
+    <t>LDI</t>
+  </si>
+  <si>
+    <t>LA</t>
+  </si>
+  <si>
+    <t>SIMS-C60</t>
+  </si>
+  <si>
+    <t>SIMS-H2O</t>
+  </si>
+  <si>
+    <t>ESI</t>
   </si>
   <si>
     <t>polarity</t>
@@ -549,6 +681,42 @@
     <t>mz_range_high_value</t>
   </si>
   <si>
+    <t>mass_resolving_power</t>
+  </si>
+  <si>
+    <t>mz_resolving_power</t>
+  </si>
+  <si>
+    <t>ion_mobility</t>
+  </si>
+  <si>
+    <t>TIMS</t>
+  </si>
+  <si>
+    <t>TWIMS</t>
+  </si>
+  <si>
+    <t>FAIMS</t>
+  </si>
+  <si>
+    <t>DTIMS</t>
+  </si>
+  <si>
+    <t>SLIMS</t>
+  </si>
+  <si>
+    <t>ms_scan_mode</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>MS/MS</t>
+  </si>
+  <si>
+    <t>MS3</t>
+  </si>
+  <si>
     <t>resolution_x_value</t>
   </si>
   <si>
@@ -579,7 +747,31 @@
     <t>preparation_maldi_matrix</t>
   </si>
   <si>
+    <t>CHB</t>
+  </si>
+  <si>
+    <t>DHB</t>
+  </si>
+  <si>
+    <t>SA</t>
+  </si>
+  <si>
+    <t>desi_solvent</t>
+  </si>
+  <si>
+    <t>desi_solvent_flow_rate</t>
+  </si>
+  <si>
+    <t>desi_solvent_flow_rate_unit</t>
+  </si>
+  <si>
+    <t>uL/minute</t>
+  </si>
+  <si>
     <t>section_prep_protocols_io_doi</t>
+  </si>
+  <si>
+    <t>processing_protocols_io_doi</t>
   </si>
   <si>
     <t>overall_protocols_io_doi</t>
@@ -937,7 +1129,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AF1"/>
+  <dimension ref="A1:AN1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -946,7 +1138,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:32">
+    <row r="1" spans="1:40">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -984,85 +1176,109 @@
         <v>13</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>46</v>
+        <v>62</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="13">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: 1." sqref="A2:A1048576">
+  <dataValidations count="19">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: 2." sqref="A2:A1048576">
       <formula1>'version list'!$A$1:$A$1</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: mass_spectrometry_imaging." sqref="K2:K1048576">
       <formula1>'assay_category list'!$A$1:$A$1</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: MALDI-IMS." sqref="L2:L1048576">
-      <formula1>'assay_type list'!$A$1:$A$1</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: protein / metabolites / lipids." sqref="M2:M1048576">
-      <formula1>'analyte_class list'!$A$1:$A$3</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: MALDI-IMS / SIMS-IMS / NanoDESI / DESI." sqref="L2:L1048576">
+      <formula1>'assay_type list'!$A$1:$A$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must come from analyte_class list." sqref="M2:M1048576">
+      <formula1>'analyte_class list'!$A$1:$A$6</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a boolean" error="The values in this column must be &quot;TRUE&quot; or &quot;FALSE&quot;." sqref="N2:N1048576">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: MALDI / MALDI-2 / DESI / SIMS / nESI." sqref="Q2:Q1048576">
-      <formula1>'ms_source list'!$A$1:$A$5</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must come from ms_source list." sqref="Q2:Q1048576">
+      <formula1>'ms_source list'!$A$1:$A$7</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: negative ion mode / positive ion mode." sqref="R2:R1048576">
       <formula1>'polarity list'!$A$1:$A$2</formula1>
@@ -1079,19 +1295,131 @@
       <formula1>-1e+307</formula1>
       <formula2>1e+307</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: nm / um." sqref="V2:V1048576">
-      <formula1>'resolution_x_unit list'!$A$1:$A$2</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="W2:W1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: TIMS / TWIMS / FAIMS / DTIMS / SLIMS." sqref="W2:W1048576">
+      <formula1>'ion_mobility list'!$A$1:$A$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: MS / MS/MS / MS3." sqref="X2:X1048576">
+      <formula1>'ms_scan_mode list'!$A$1:$A$3</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="Y2:Y1048576">
       <formula1>-1e+307</formula1>
       <formula2>1e+307</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: nm / um." sqref="X2:X1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: nm / um." sqref="Z2:Z1048576">
+      <formula1>'resolution_x_unit list'!$A$1:$A$2</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="AA2:AA1048576">
+      <formula1>-1e+307</formula1>
+      <formula2>1e+307</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: nm / um." sqref="AB2:AB1048576">
       <formula1>'resolution_y_unit list'!$A$1:$A$2</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: CHB / DHB / SA." sqref="AF2:AF1048576">
+      <formula1>'preparation_maldi_matrix list'!$A$1:$A$3</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="AH2:AH1048576">
+      <formula1>-1e+307</formula1>
+      <formula2>1e+307</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: uL/minute." sqref="AI2:AI1048576">
+      <formula1>'desi_solvent_f...rate_unit list'!$A$1:$A$1</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -1133,7 +1461,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1144,6 +1472,21 @@
         <v>14</v>
       </c>
     </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1151,7 +1494,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1159,17 +1502,32 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1179,7 +1537,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1187,27 +1545,37 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1225,12 +1593,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1240,7 +1608,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1248,12 +1616,27 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1263,7 +1646,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1271,12 +1654,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/docs/ims/ims-metadata.xlsx
+++ b/docs/ims/ims-metadata.xlsx
@@ -209,7 +209,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Specifies whether or not a specific molecule(s) is/are targeted for detection/measurement by the assay. The CODEX analyte is protein.</t>
+          <t>Specifies whether or not a specific molecule(s) is/are targeted for detection/measurement by the assay.</t>
         </r>
       </text>
     </comment>

--- a/docs/ims/ims-metadata.xlsx
+++ b/docs/ims/ims-metadata.xlsx
@@ -300,7 +300,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>This is the MS1 resolving power. This is a unitless value often calculated as m/∆m where ∆m is the FWHM for a given peak with a certain m/z (m).</t>
+          <t>The MS1 resolving power defined as m/∆m where ∆m is the FWHM for a given peak with a specified m/z (m). (unitless)</t>
         </r>
       </text>
     </comment>
@@ -313,7 +313,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>This is the m/z used to calculate the resolving power.</t>
+          <t>The peak (m/z) used to calculate the resolving power.</t>
         </r>
       </text>
     </comment>
@@ -326,7 +326,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Methodologies for measuring ion mobility: Traveling Wave Ion Mobility Spectrometry (TWIMS), Trapped Ion Mobility Spectrometry (TIMS), High Field Asymmetric waveform ion Mobility Spectrometry (FAIMS), Drift Tube Ion Mobility Spectrometry (DTIMS), Structures for Lossless Ion Manipulations Spectrometry (SLIMS).</t>
+          <t>Specifies whether or not ion mobility spectrometry was performed and which technology was used. Technologies for measuring ion mobility: Traveling Wave Ion Mobility Spectrometry (TWIMS), Trapped Ion Mobility Spectrometry (TIMS), High Field Asymmetric waveform ion Mobility Spectrometry (FAIMS), Drift Tube Ion Mobility Spectrometry (DTIMS, Structures for Lossless Ion Manipulations (SLIM).</t>
         </r>
       </text>
     </comment>
@@ -1261,7 +1261,7 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="19">
+  <dataValidations count="20">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: 2." sqref="A2:A1048576">
       <formula1>'version list'!$A$1:$A$1</formula1>
     </dataValidation>
@@ -1292,6 +1292,10 @@
       <formula2>1e+307</formula2>
     </dataValidation>
     <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="U2:U1048576">
+      <formula1>-1e+307</formula1>
+      <formula2>1e+307</formula2>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="V2:V1048576">
       <formula1>-1e+307</formula1>
       <formula2>1e+307</formula2>
     </dataValidation>

--- a/docs/ims/ims-metadata.xlsx
+++ b/docs/ims/ims-metadata.xlsx
@@ -209,7 +209,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Specifies whether or not a specific molecule(s) is/are targeted for detection/measurement by the assay. The CODEX analyte is protein.</t>
+          <t>Specifies whether or not a specific molecule(s) is/are targeted for detection/measurement by the assay.</t>
         </r>
       </text>
     </comment>
@@ -300,7 +300,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>This is the MS1 resolving power. This is a unitless value often calculated as m/∆m where ∆m is the FWHM for a given peak with a certain m/z (m).</t>
+          <t>The MS1 resolving power defined as m/∆m where ∆m is the FWHM for a given peak with a specified m/z (m). (unitless)</t>
         </r>
       </text>
     </comment>
@@ -313,7 +313,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>This is the m/z used to calculate the resolving power.</t>
+          <t>The peak (m/z) used to calculate the resolving power.</t>
         </r>
       </text>
     </comment>
@@ -326,7 +326,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Methodologies for measuring ion mobility: Traveling Wave Ion Mobility Spectrometry (TWIMS), Trapped Ion Mobility Spectrometry (TIMS), High Field Asymmetric waveform ion Mobility Spectrometry (FAIMS), Drift Tube Ion Mobility Spectrometry (DTIMS), Structures for Lossless Ion Manipulations Spectrometry (SLIMS).</t>
+          <t>Specifies whether or not ion mobility spectrometry was performed and which technology was used. Technologies for measuring ion mobility: Traveling Wave Ion Mobility Spectrometry (TWIMS), Trapped Ion Mobility Spectrometry (TIMS), High Field Asymmetric waveform ion Mobility Spectrometry (FAIMS), Drift Tube Ion Mobility Spectrometry (DTIMS, Structures for Lossless Ion Manipulations (SLIM).</t>
         </r>
       </text>
     </comment>
@@ -1261,7 +1261,7 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="19">
+  <dataValidations count="20">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: 2." sqref="A2:A1048576">
       <formula1>'version list'!$A$1:$A$1</formula1>
     </dataValidation>
@@ -1292,6 +1292,10 @@
       <formula2>1e+307</formula2>
     </dataValidation>
     <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="U2:U1048576">
+      <formula1>-1e+307</formula1>
+      <formula2>1e+307</formula2>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="V2:V1048576">
       <formula1>-1e+307</formula1>
       <formula2>1e+307</formula2>
     </dataValidation>

--- a/docs/ims/ims-metadata.xlsx
+++ b/docs/ims/ims-metadata.xlsx
@@ -556,7 +556,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="76">
   <si>
     <t>version</t>
   </si>
@@ -664,6 +664,9 @@
   </si>
   <si>
     <t>ESI</t>
+  </si>
+  <si>
+    <t>nanoDESI</t>
   </si>
   <si>
     <t>polarity</t>
@@ -1191,73 +1194,73 @@
         <v>28</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -1278,7 +1281,7 @@
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must come from ms_source list." sqref="Q2:Q1048576">
-      <formula1>'ms_source list'!$A$1:$A$7</formula1>
+      <formula1>'ms_source list'!$A$1:$A$8</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: negative ion mode / positive ion mode." sqref="R2:R1048576">
       <formula1>'polarity list'!$A$1:$A$2</formula1>
@@ -1345,12 +1348,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1368,12 +1371,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1391,17 +1394,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1419,7 +1422,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1541,7 +1544,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1580,6 +1583,11 @@
     <row r="7" spans="1:1">
       <c r="A7" t="s">
         <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1597,12 +1605,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1620,27 +1628,27 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1658,17 +1666,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/docs/ims/ims-metadata.xlsx
+++ b/docs/ims/ims-metadata.xlsx
@@ -12,14 +12,15 @@
     <sheet name="assay_category list" sheetId="3" r:id="rId3"/>
     <sheet name="assay_type list" sheetId="4" r:id="rId4"/>
     <sheet name="analyte_class list" sheetId="5" r:id="rId5"/>
-    <sheet name="ms_source list" sheetId="6" r:id="rId6"/>
-    <sheet name="polarity list" sheetId="7" r:id="rId7"/>
-    <sheet name="ion_mobility list" sheetId="8" r:id="rId8"/>
-    <sheet name="ms_scan_mode list" sheetId="9" r:id="rId9"/>
-    <sheet name="resolution_x_unit list" sheetId="10" r:id="rId10"/>
-    <sheet name="resolution_y_unit list" sheetId="11" r:id="rId11"/>
-    <sheet name="preparation_maldi_matrix list" sheetId="12" r:id="rId12"/>
-    <sheet name="desi_solvent_f...rate_unit list" sheetId="13" r:id="rId13"/>
+    <sheet name="is_targeted list" sheetId="6" r:id="rId6"/>
+    <sheet name="ms_source list" sheetId="7" r:id="rId7"/>
+    <sheet name="polarity list" sheetId="8" r:id="rId8"/>
+    <sheet name="ion_mobility list" sheetId="9" r:id="rId9"/>
+    <sheet name="ms_scan_mode list" sheetId="10" r:id="rId10"/>
+    <sheet name="resolution_x_unit list" sheetId="11" r:id="rId11"/>
+    <sheet name="resolution_y_unit list" sheetId="12" r:id="rId12"/>
+    <sheet name="preparation_maldi_matrix list" sheetId="13" r:id="rId13"/>
+    <sheet name="desi_solvent_f...rate_unit list" sheetId="14" r:id="rId14"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -556,7 +557,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="78">
   <si>
     <t>version</t>
   </si>
@@ -634,6 +635,12 @@
   </si>
   <si>
     <t>is_targeted</t>
+  </si>
+  <si>
+    <t>TRUE</t>
+  </si>
+  <si>
+    <t>FALSE</t>
   </si>
   <si>
     <t>acquisition_instrument_vendor</t>
@@ -1185,82 +1192,82 @@
         <v>25</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1277,8 +1284,8 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must come from analyte_class list." sqref="M2:M1048576">
       <formula1>'analyte_class list'!$A$1:$A$6</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a boolean" error="The values in this column must be &quot;TRUE&quot; or &quot;FALSE&quot;." sqref="N2:N1048576">
-      <formula1>"TRUE,FALSE"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: TRUE / FALSE." sqref="N2:N1048576">
+      <formula1>'is_targeted list'!$A$1:$A$2</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must come from ms_source list." sqref="Q2:Q1048576">
       <formula1>'ms_source list'!$A$1:$A$8</formula1>
@@ -1340,7 +1347,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1348,12 +1355,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>57</v>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1371,12 +1383,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1385,6 +1397,29 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A3"/>
   <sheetViews>
@@ -1394,17 +1429,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1412,7 +1447,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1422,7 +1457,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1544,6 +1579,29 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1552,42 +1610,42 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1595,7 +1653,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -1605,12 +1663,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1618,7 +1676,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A5"/>
   <sheetViews>
@@ -1628,55 +1686,27 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
         <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
-        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/docs/ims/ims-metadata.xlsx
+++ b/docs/ims/ims-metadata.xlsx
@@ -556,7 +556,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="78">
   <si>
     <t>version</t>
   </si>
@@ -601,6 +601,12 @@
   </si>
   <si>
     <t>MALDI-IMS</t>
+  </si>
+  <si>
+    <t>MALDI-IMS-pos</t>
+  </si>
+  <si>
+    <t>MALDI-IMS-neg</t>
   </si>
   <si>
     <t>SIMS-IMS</t>
@@ -1179,88 +1185,88 @@
         <v>13</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1271,8 +1277,8 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: mass_spectrometry_imaging." sqref="K2:K1048576">
       <formula1>'assay_category list'!$A$1:$A$1</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: MALDI-IMS / SIMS-IMS / NanoDESI / DESI." sqref="L2:L1048576">
-      <formula1>'assay_type list'!$A$1:$A$4</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must come from assay_type list." sqref="L2:L1048576">
+      <formula1>'assay_type list'!$A$1:$A$6</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must come from analyte_class list." sqref="M2:M1048576">
       <formula1>'analyte_class list'!$A$1:$A$6</formula1>
@@ -1348,12 +1354,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1371,12 +1377,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1394,17 +1400,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1422,7 +1428,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1468,7 +1474,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1492,6 +1498,16 @@
     <row r="4" spans="1:1">
       <c r="A4" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1509,32 +1525,32 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1552,42 +1568,42 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1605,12 +1621,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1628,27 +1644,27 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1666,17 +1682,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/docs/ims/ims-metadata.xlsx
+++ b/docs/ims/ims-metadata.xlsx
@@ -170,7 +170,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Each assay is placed into one of the following 3 general categories: generation of images of microscopic entities, identification &amp; quantitation of molecules by mass spectrometry, and determination of nucleotide sequence.</t>
+          <t>Each assay is placed into one of the following 4 general categories: generation of images of microscopic entities, identification &amp; quantitation of molecules by mass spectrometry, imaging mass spectrometry, and determination of nucleotide sequence.</t>
         </r>
       </text>
     </comment>

--- a/docs/ims/ims-metadata.xlsx
+++ b/docs/ims/ims-metadata.xlsx
@@ -556,7 +556,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="77">
   <si>
     <t>version</t>
   </si>
@@ -676,6 +676,9 @@
   </si>
   <si>
     <t>positive ion mode</t>
+  </si>
+  <si>
+    <t>negative and positive ion mode</t>
   </si>
   <si>
     <t>mz_range_low_value</t>
@@ -1197,70 +1200,70 @@
         <v>37</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -1283,8 +1286,8 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must come from ms_source list." sqref="Q2:Q1048576">
       <formula1>'ms_source list'!$A$1:$A$8</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: negative ion mode / positive ion mode." sqref="R2:R1048576">
-      <formula1>'polarity list'!$A$1:$A$2</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: negative ion mode / positive ion mode / negative and positive ion mode." sqref="R2:R1048576">
+      <formula1>'polarity list'!$A$1:$A$3</formula1>
     </dataValidation>
     <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="S2:S1048576">
       <formula1>-1e+307</formula1>
@@ -1348,12 +1351,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1371,12 +1374,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1394,17 +1397,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1422,7 +1425,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1597,7 +1600,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1611,6 +1614,11 @@
     <row r="2" spans="1:1">
       <c r="A2" t="s">
         <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1628,27 +1636,27 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1666,17 +1674,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/docs/ims/ims-metadata.xlsx
+++ b/docs/ims/ims-metadata.xlsx
@@ -248,7 +248,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>The ion source type used for surface sampling (MALDI, MALDI-2, DESI, or SIMS) or LC-MS/MS data acquisition (nESI)</t>
+          <t>The ion source type used for surface sampling (MALDI, MALDI-2, DESI, nanoDESI or SIMS).</t>
         </r>
       </text>
     </comment>
@@ -556,12 +556,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="76">
   <si>
     <t>version</t>
   </si>
   <si>
-    <t>2</t>
+    <t>3</t>
   </si>
   <si>
     <t>description</t>
@@ -661,9 +661,6 @@
   </si>
   <si>
     <t>SIMS-H2O</t>
-  </si>
-  <si>
-    <t>ESI</t>
   </si>
   <si>
     <t>nanoDESI</t>
@@ -1197,78 +1194,78 @@
         <v>28</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="W1" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="X1" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Y1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="Z1" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="AA1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="AF1" s="1" t="s">
-        <v>64</v>
-      </c>
       <c r="AG1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AH1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="AI1" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="AJ1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>76</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="20">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: 2." sqref="A2:A1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: 3." sqref="A2:A1048576">
       <formula1>'version list'!$A$1:$A$1</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: mass_spectrometry_imaging." sqref="K2:K1048576">
@@ -1284,7 +1281,7 @@
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must come from ms_source list." sqref="Q2:Q1048576">
-      <formula1>'ms_source list'!$A$1:$A$8</formula1>
+      <formula1>'ms_source list'!$A$1:$A$7</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: negative ion mode / positive ion mode / negative and positive ion mode." sqref="R2:R1048576">
       <formula1>'polarity list'!$A$1:$A$3</formula1>
@@ -1351,12 +1348,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1374,12 +1371,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1397,17 +1394,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1425,7 +1422,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1547,7 +1544,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A8"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1586,11 +1583,6 @@
     <row r="7" spans="1:1">
       <c r="A7" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1608,17 +1600,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1636,27 +1628,27 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1674,17 +1666,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/docs/ims/ims-metadata.xlsx
+++ b/docs/ims/ims-metadata.xlsx
@@ -248,7 +248,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>The ion source type used for surface sampling (MALDI, MALDI-2, DESI, or SIMS) or LC-MS/MS data acquisition (nESI)</t>
+          <t>The ion source type used for surface sampling (MALDI, MALDI-2, DESI, nanoDESI or SIMS).</t>
         </r>
       </text>
     </comment>
@@ -556,7 +556,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="76">
   <si>
     <t>version</t>
   </si>
@@ -661,9 +661,6 @@
   </si>
   <si>
     <t>SIMS-H2O</t>
-  </si>
-  <si>
-    <t>ESI</t>
   </si>
   <si>
     <t>nanoDESI</t>
@@ -1197,73 +1194,73 @@
         <v>28</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="W1" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="X1" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Y1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="Z1" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="AA1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="AF1" s="1" t="s">
-        <v>64</v>
-      </c>
       <c r="AG1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AH1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="AI1" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="AJ1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -1284,7 +1281,7 @@
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must come from ms_source list." sqref="Q2:Q1048576">
-      <formula1>'ms_source list'!$A$1:$A$8</formula1>
+      <formula1>'ms_source list'!$A$1:$A$7</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: negative ion mode / positive ion mode / negative and positive ion mode." sqref="R2:R1048576">
       <formula1>'polarity list'!$A$1:$A$3</formula1>
@@ -1351,12 +1348,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1374,12 +1371,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1397,17 +1394,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1425,7 +1422,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1547,7 +1544,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A8"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1586,11 +1583,6 @@
     <row r="7" spans="1:1">
       <c r="A7" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1608,17 +1600,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1636,27 +1628,27 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1674,17 +1666,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/docs/ims/ims-metadata.xlsx
+++ b/docs/ims/ims-metadata.xlsx
@@ -18,8 +18,7 @@
     <sheet name="ms_scan_mode list" sheetId="9" r:id="rId9"/>
     <sheet name="resolution_x_unit list" sheetId="10" r:id="rId10"/>
     <sheet name="resolution_y_unit list" sheetId="11" r:id="rId11"/>
-    <sheet name="preparation_maldi_matrix list" sheetId="12" r:id="rId12"/>
-    <sheet name="desi_solvent_f...rate_unit list" sheetId="13" r:id="rId13"/>
+    <sheet name="desi_solvent_f...rate_unit list" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -556,7 +555,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="73">
   <si>
     <t>version</t>
   </si>
@@ -748,15 +747,6 @@
   </si>
   <si>
     <t>preparation_maldi_matrix</t>
-  </si>
-  <si>
-    <t>CHB</t>
-  </si>
-  <si>
-    <t>DHB</t>
-  </si>
-  <si>
-    <t>SA</t>
   </si>
   <si>
     <t>desi_solvent</t>
@@ -1239,32 +1229,32 @@
         <v>63</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="AH1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="AL1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>75</v>
-      </c>
     </row>
   </sheetData>
-  <dataValidations count="20">
+  <dataValidations count="19">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: 2." sqref="A2:A1048576">
       <formula1>'version list'!$A$1:$A$1</formula1>
     </dataValidation>
@@ -1321,9 +1311,6 @@
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: nm / um." sqref="AB2:AB1048576">
       <formula1>'resolution_y_unit list'!$A$1:$A$2</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: CHB / DHB / SA." sqref="AF2:AF1048576">
-      <formula1>'preparation_maldi_matrix list'!$A$1:$A$3</formula1>
     </dataValidation>
     <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="AH2:AH1048576">
       <formula1>-1e+307</formula1>
@@ -1386,34 +1373,6 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1422,7 +1381,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/docs/ims/ims-metadata.xlsx
+++ b/docs/ims/ims-metadata.xlsx
@@ -555,7 +555,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="73">
   <si>
     <t>version</t>
   </si>
@@ -1271,7 +1271,7 @@
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must come from ms_source list." sqref="Q2:Q1048576">
-      <formula1>'ms_source list'!$A$1:$A$7</formula1>
+      <formula1>'ms_source list'!$A$1:$A$8</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: negative ion mode / positive ion mode / negative and positive ion mode." sqref="R2:R1048576">
       <formula1>'polarity list'!$A$1:$A$3</formula1>
@@ -1503,7 +1503,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1541,6 +1541,11 @@
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
         <v>35</v>
       </c>
     </row>
